--- a/answers_by_question_male_pre.xlsx
+++ b/answers_by_question_male_pre.xlsx
@@ -5966,11 +5966,6 @@
       <c r="F4" t="n">
         <v>6</v>
       </c>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -5981,19 +5976,15 @@
       <c r="B5" t="n">
         <v>2</v>
       </c>
-      <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
         <v>3</v>
       </c>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
         <v>1</v>
       </c>
-      <c r="I5" t="inlineStr"/>
       <c r="J5" t="n">
         <v>3</v>
       </c>
